--- a/docs/storm实时统计redis定义.xlsx
+++ b/docs/storm实时统计redis定义.xlsx
@@ -1,26 +1,324 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="订单" sheetId="1" r:id="rId1"/>
+    <sheet name="计划" sheetId="2" r:id="rId2"/>
+    <sheet name="策略组" sheetId="3" r:id="rId3"/>
+    <sheet name="广告" sheetId="4" r:id="rId4"/>
+    <sheet name="受众" sheetId="5" r:id="rId5"/>
+    <sheet name="广告位" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="68">
+  <si>
+    <t>DB:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曝光量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞价量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗量（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总消耗REDIS KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天消耗REDIS KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderCons:{ORDER_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDCons:{DATE}:{ORDER_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planCons:{PLAN_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planDCons:{DATE}:{PLAN_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupCons:{GROUP_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupDCons:{DATE}:{GROUP_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adCons:{AD_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotCons:{ADX_ID}:{SLOT_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTL：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTL：-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audDCons:{DATE}:{AUDIENCE_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audCons:{AUDIENCE_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告数据REDIS KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstClkTm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstImpTm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曝光量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次点击unix时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次曝光unix时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotDCons:{DATE}:{ADX_ID}:{SLOT_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时消耗REDIS KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adHCons:{DATE_HOUR}:{AD_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5分钟消耗REDIS KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTL:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTL:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audSite:{AUDIENCE_ID}:{SITE_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站数据REDIS KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audAd:{AUDIENCE_ID}:{AD_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告天数据REDIS KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audAd:{DATE}:{AUDIENCE_ID}:{AD_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adDCons:{DATE}:{AD_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTL:10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupMCons:{DATE}{DAY_5min_SEQ}:{GROUP_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,19 +342,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +648,1462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
+    <col min="3" max="3" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="41.625" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>